--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -49,13 +46,19 @@
   </si>
   <si>
     <t>оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,32 +125,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -188,18 +165,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,10 +272,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +306,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -504,17 +481,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -523,12 +500,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -536,112 +515,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>676.5</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
         <v>10165.540000000001</v>
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="12">
         <v>43309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
         <v>10165.540000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="12">
         <v>43309</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9">
         <v>676.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="13">
         <v>43466</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7">
         <v>865.92</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A8" s="14">
         <v>43586</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="11">
         <v>10021.219999999999</v>
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A9" s="14">
         <v>43763</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7">
         <v>865.92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:4">
+      <c r="A10" s="14">
         <v>43763</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="11">
         <v>10021.219999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -649,12 +625,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -663,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №82</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -240,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +311,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -481,17 +487,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -500,8 +506,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -515,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43221</v>
       </c>
@@ -527,7 +533,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43221</v>
       </c>
@@ -539,7 +545,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43309</v>
       </c>
@@ -551,7 +557,7 @@
         <v>10165.540000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43309</v>
       </c>
@@ -563,7 +569,7 @@
         <v>676.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43466</v>
       </c>
@@ -575,7 +581,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43586</v>
       </c>
@@ -587,7 +593,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1">
+    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43763</v>
       </c>
@@ -599,7 +605,7 @@
         <v>865.92</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>43763</v>
       </c>
@@ -611,10 +617,16 @@
         <v>10021.219999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>11707.96</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
   </sheetData>
@@ -625,12 +637,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -639,12 +651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -491,10 +491,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -628,6 +628,60 @@
         <v>11707.96</v>
       </c>
       <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>44064</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>432.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,13 +55,22 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислена арендная плата за зем.уч.(с 01.01.2020 по 31.12.2020)</t>
+  </si>
+  <si>
+    <t>Начислены пени за 186 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислены пени за 208 дн просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +82,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -143,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,6 +200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,63 +644,108 @@
         <v>12</v>
       </c>
       <c r="C11" s="9">
-        <v>11707.96</v>
+        <v>11275</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>432.96</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>44064</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
         <v>432.96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="17">
+        <v>44291</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="9">
+        <v>5256</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="18">
+        <v>44291</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="19">
+        <v>977.62</v>
+      </c>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="17">
+        <v>44313</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9">
+        <v>6019</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="18">
+        <v>44313</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1251.95</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="9">
+        <f>SUM(C3:C17)</f>
+        <v>35666.71</v>
+      </c>
+      <c r="D18" s="9">
+        <f>SUM(D3:D17)</f>
+        <v>33437.14</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="20">
+        <f>SUM(C18,-D18)</f>
+        <v>2229.5699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>Начислены пени за 208 дн просрочки</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +92,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -159,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +212,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,10 +521,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -721,31 +732,55 @@
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9">
-        <f>SUM(C3:C17)</f>
-        <v>35666.71</v>
-      </c>
-      <c r="D18" s="9">
-        <f>SUM(D3:D17)</f>
-        <v>33437.14</v>
-      </c>
+      <c r="A18" s="21">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22">
+        <v>12023.66</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="20">
-        <f>SUM(C18,-D18)</f>
-        <v>2229.5699999999997</v>
-      </c>
+      <c r="A19" s="21">
+        <v>44197</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22">
+        <v>444.87</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="9">
+        <f>SUM(C3:C19)</f>
+        <v>48135.24</v>
+      </c>
+      <c r="D20" s="9">
+        <f>SUM(D3:D19)</f>
+        <v>33437.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="20">
+        <f>SUM(C20,-D20)</f>
+        <v>14698.099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A20" sqref="A20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -756,31 +759,48 @@
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9">
-        <f>SUM(C3:C19)</f>
-        <v>48135.24</v>
-      </c>
-      <c r="D20" s="9">
-        <f>SUM(D3:D19)</f>
-        <v>33437.14</v>
+      <c r="A20" s="17">
+        <v>44494</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22">
+        <v>12023.66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="20">
-        <f>SUM(C20,-D20)</f>
-        <v>14698.099999999999</v>
+      <c r="A21" s="17">
+        <v>44494</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22">
+        <v>444.87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="C22" s="9">
+        <f>SUM(C3:C21)</f>
+        <v>48135.24</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(D3:D21)</f>
+        <v>45905.670000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch82.xlsx
+++ b/sputnik/personal/uch/uch82.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,7 +118,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -180,43 +201,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,10 +588,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -558,35 +605,35 @@
       <c r="A3" s="12">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="14">
         <v>676.5</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43221</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="14">
         <v>10165.540000000001</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43309</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17">
         <v>10165.540000000001</v>
       </c>
     </row>
@@ -594,213 +641,217 @@
       <c r="A6" s="12">
         <v>43309</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
         <v>676.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="20">
         <v>43466</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="22">
         <v>865.92</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="23">
         <v>43586</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="25">
         <v>10021.219999999999</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="23">
         <v>43763</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
+      <c r="C9" s="26"/>
+      <c r="D9" s="22">
         <v>865.92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="23">
         <v>43763</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="11">
+      <c r="C10" s="26"/>
+      <c r="D10" s="25">
         <v>10021.219999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="27">
         <v>43952</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="29">
         <v>11275</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>43952</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="29">
         <v>432.96</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="27">
         <v>44064</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
         <v>432.96</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>44291</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29">
         <v>5256</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="8">
         <v>44291</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="9">
         <v>977.62</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="27">
         <v>44313</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9">
+      <c r="B16" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
         <v>6019</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="8">
         <v>44313</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="9">
         <v>1251.95</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="32">
         <v>44317</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="33">
         <v>12023.66</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="32">
         <v>44197</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="33">
         <v>444.87</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="36">
         <v>44494</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33">
         <v>12023.66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="36">
         <v>44494</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33">
         <v>444.87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5">
         <f>SUM(C3:C21)</f>
         <v>48135.24</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="5">
         <f>SUM(D3:D21)</f>
         <v>45905.670000000006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11">
+        <f>SUM(D22,-C22)</f>
+        <v>-2229.5699999999924</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
